--- a/Apartamentos.xlsx
+++ b/Apartamentos.xlsx
@@ -1,67 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\Busca google maps\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B481ADB-6FE7-4F99-8E95-D3F5D4D34069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4620" yWindow="3690" windowWidth="16440" windowHeight="9810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Apartamentos" sheetId="1" r:id="rId1"/>
+    <sheet name="Apartamentos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Endereço</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Valor m²</t>
-  </si>
-  <si>
-    <t>Área</t>
-  </si>
-  <si>
-    <t>Quartos</t>
-  </si>
-  <si>
-    <t>Suites</t>
-  </si>
-  <si>
-    <t>Garagem</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,26 +52,92 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -415,55 +457,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="63.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" customWidth="1"/>
+    <col width="63.28515625" customWidth="1" min="2" max="2"/>
+    <col width="21.140625" customWidth="1" style="4" min="3" max="3"/>
+    <col width="15" customWidth="1" style="5" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14.7109375" customWidth="1" min="6" max="6"/>
+    <col width="15.85546875" customWidth="1" min="7" max="7"/>
+    <col width="17.42578125" customWidth="1" min="8" max="8"/>
+    <col width="37.140625" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Endereço</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Valor m²</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Área</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Quartos</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Suites</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Garagem</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="6" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SQN 215, ASA NORTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5.187</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.187</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>
--- a/Apartamentos.xlsx
+++ b/Apartamentos.xlsx
@@ -1,49 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\Busca google maps\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F27EE3-12C4-4F50-B7FA-89B1516F03AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4620" yWindow="3690" windowWidth="16440" windowHeight="9810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2535" yWindow="1860" windowWidth="16440" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Apartamentos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Apartamentos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Valor m²</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>Quartos</t>
+  </si>
+  <si>
+    <t>Suites</t>
+  </si>
+  <si>
+    <t>Garagem</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -52,92 +110,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="currency" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="number_format" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -457,91 +478,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="63.28515625" customWidth="1" min="2" max="2"/>
-    <col width="21.140625" customWidth="1" style="4" min="3" max="3"/>
-    <col width="15" customWidth="1" style="5" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14.7109375" customWidth="1" min="6" max="6"/>
-    <col width="15.85546875" customWidth="1" min="7" max="7"/>
-    <col width="17.42578125" customWidth="1" min="8" max="8"/>
-    <col width="37.140625" customWidth="1" min="9" max="9"/>
+    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Endereço</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>Valor m²</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Área</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Quartos</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Suites</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Garagem</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" s="6" t="n"/>
+    <row r="2" spans="1:9">
+      <c r="A2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SQN 215, ASA NORTE, BRASILIA</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5.187</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.187</v>
-      </c>
+    <row r="3" spans="1:9">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" s="7"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Apartamentos.xlsx
+++ b/Apartamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\Busca google maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F27EE3-12C4-4F50-B7FA-89B1516F03AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66546A7-8077-4F94-946C-494545E14177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2535" yWindow="1860" windowWidth="16440" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Endereço</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>CLNW 2/3, NOROESTE, BRASILIA</t>
+  </si>
+  <si>
+    <t>R$ 4.300</t>
+  </si>
+  <si>
+    <t>R$ 81</t>
+  </si>
+  <si>
+    <t>53 m²</t>
+  </si>
+  <si>
+    <t>2 Quartos</t>
+  </si>
+  <si>
+    <t>1 Vaga</t>
   </si>
 </sst>
 </file>
@@ -481,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -491,11 +509,11 @@
     <col min="2" max="2" width="63.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="14" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -517,17 +535,35 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="C3" s="6"/>

--- a/Apartamentos.xlsx
+++ b/Apartamentos.xlsx
@@ -1,105 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\Busca google maps\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66546A7-8077-4F94-946C-494545E14177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="1860" windowWidth="16440" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Apartamentos" sheetId="1" r:id="rId1"/>
+    <sheet name="Apartamentos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Endereço</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Valor m²</t>
-  </si>
-  <si>
-    <t>Área</t>
-  </si>
-  <si>
-    <t>Quartos</t>
-  </si>
-  <si>
-    <t>Suites</t>
-  </si>
-  <si>
-    <t>Garagem</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>CLNW 2/3, NOROESTE, BRASILIA</t>
-  </si>
-  <si>
-    <t>R$ 4.300</t>
-  </si>
-  <si>
-    <t>R$ 81</t>
-  </si>
-  <si>
-    <t>53 m²</t>
-  </si>
-  <si>
-    <t>2 Quartos</t>
-  </si>
-  <si>
-    <t>1 Vaga</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Aptos Narrow"/>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
     </font>
     <font>
+      <name val="Aptos Narrow"/>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -129,54 +76,110 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="2"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="currency" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="number_format" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="number_format" xfId="2"/>
+    <cellStyle name="currency" xfId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -496,90 +499,1353 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="63.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" style="4" customWidth="1"/>
+    <col width="9.140625" customWidth="1" style="4" min="1" max="1"/>
+    <col width="63.28515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="21.140625" customWidth="1" style="7" min="3" max="3"/>
+    <col width="15" customWidth="1" style="5" min="4" max="4"/>
+    <col width="14" customWidth="1" style="4" min="5" max="5"/>
+    <col width="14.7109375" customWidth="1" style="4" min="6" max="6"/>
+    <col width="15.85546875" customWidth="1" style="4" min="7" max="7"/>
+    <col width="17.42578125" customWidth="1" style="4" min="8" max="8"/>
+    <col width="117.7109375" customWidth="1" style="4" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Endereço</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Valor m²</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Área</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Quartos</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Suites</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Garagem</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CLNW 2/3, NOROESTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>R$ 4.300</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>R$ 81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>53 m²</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2 Quartos</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-2-quartos-aluguel-noroeste-brasilia-df-clnw-2-3-799241</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SQNW 307, NOROESTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>R$ 6.200</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>R$ 73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84 m²</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2 Quartos</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 Suítes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2 Vagas</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-2-quartos-aluguel-noroeste-brasilia-df-sqnw-307-913817</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SQS 316, ASA SUL, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>R$ 5.500</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>R$ 34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>158 m²</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3 Quartos</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2 Suítes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-3-quartos-aluguel-asa-sul-brasilia-df-sqs-316-513939</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SQNW 310 Bloco C, NOROESTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>R$ 2.400</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>R$ 60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>40 m²</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1 Quarto</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1 Suíte</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-1-quarto-aluguel-noroeste-brasilia-df-sqnw-310-bloco-c-892678</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CLNW 10/11 Lote I, NOROESTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>R$ 2.200</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>R$ 68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>32 m²</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1 Quarto</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-1-quarto-aluguel-noroeste-brasilia-df-clnw-10-11-lote-i-349248</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CA 09, LAGO NORTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>R$ 1.300</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>R$ 37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>35 m²</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1 Quarto</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/kitnet-1-quarto-aluguel-lago-norte-brasilia-df-ca-09-6406</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SGCV, PARK SUL, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>R$ 15.000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>R$ 59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>253 m²</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4 Quartos</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4 Suítes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>4 Vagas</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-4-quartos-aluguel-park-sul-brasilia-df-sgcv-875279</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CA 10, LAGO NORTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>R$ 2.600</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>R$ 44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59 m²</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2 Quartos</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-2-quartos-aluguel-lago-norte-brasilia-df-ca-10-827157</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CLNW 2/3 Lote K, NOROESTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>R$ 5.600</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>R$ 87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64 m²</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2 Quartos</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-2-quartos-aluguel-noroeste-brasilia-df-clnw-2-3-lote-k-826416</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SCLRN 712 Bloco A, ASA NORTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>R$ 3.800</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>R$ 38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>100 m²</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3 Quartos</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2 Suítes</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-3-quartos-aluguel-asa-norte-brasilia-df-sclrn-712-bloco-a-898620</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SQNW 109 Bloco I, NOROESTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>R$ 6.900</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>R$ 94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73 m²</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2 Quartos</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1 Suíte</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 Vagas</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-2-quartos-aluguel-noroeste-brasilia-df-sqnw-109-bloco-i-917951</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>QRSW 1, SUDOESTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>R$ 3.500</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>R$ 35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>100 m²</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2 Quartos</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1 Suíte</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-2-quartos-aluguel-sudoeste-brasilia-df-qrsw-1-193110</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="C3" s="6"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="C6" s="7"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SQNW 309 Bloco G, NOROESTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>R$ 10.200</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>R$ 80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>127 m²</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3 Quartos</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2 Suítes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2 Vagas</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-3-quartos-aluguel-noroeste-brasilia-df-sqnw-309-bloco-g-924600</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SGCV, PARK SUL, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>R$ 2.000</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>R$ 74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27 m²</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1 Quarto</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1 Suíte</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-1-quarto-aluguel-park-sul-brasilia-df-sgcv-434744</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SQSW 301, SUDOESTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>R$ 5.900</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>R$ 67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88 m²</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3 Quartos</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1 Suíte</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-3-quartos-aluguel-sudoeste-brasilia-df-sqsw-301-914320</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SGCV Lote 10, PARK SUL, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>R$ 2.900</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>R$ 69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>42 m²</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1 Quarto</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-1-quarto-aluguel-park-sul-brasilia-df-sgcv-lote-10-460342</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SQS 302 Bloco H, ASA SUL, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>R$ 10.800</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>R$ 90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>120 m²</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3 Quartos</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1 Suíte</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-3-quartos-aluguel-asa-sul-brasilia-df-sqs-302-bloco-h-916521</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>QRSW 1 Bloco A 5, SUDOESTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>R$ 2.600</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>R$ 44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>59 m²</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2 Quartos</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-2-quartos-aluguel-sudoeste-brasilia-df-qrsw-1-bloco-a-5-260858</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CA 09, LAGO NORTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>R$ 1.900</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>R$ 63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30 m²</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1 Quarto</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1 Suíte</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/kitnet-1-quarto-aluguel-lago-norte-brasilia-df-ca-09-792427</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SQNW 107 Bloco C, NOROESTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>R$ 5.500</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>R$ 64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85 m²</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2 Quartos</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1 Suíte</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-2-quartos-aluguel-noroeste-brasilia-df-sqnw-107-bloco-c-272666</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SHS Quadra 6, ASA SUL, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>R$ 5.900</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>R$ 134</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>44 m²</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1 Quarto</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-1-quarto-aluguel-asa-sul-brasilia-df-shs-quadra-6-705371</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SQNW 109 Bloco F, NOROESTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>R$ 5.000</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>R$ 58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85 m²</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2 Quartos</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1 Suíte</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-2-quartos-aluguel-noroeste-brasilia-df-sqnw-109-bloco-f-913958</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SQS 208 Bloco G, ASA SUL, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>R$ 2.800</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>R$ 32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85 m²</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2 Quartos</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1 Suíte</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-2-quartos-aluguel-asa-sul-brasilia-df-sqs-208-bloco-g-923533</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SEPS 712/912, ASA SUL, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>R$ 1.500</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>R$ 60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25 m²</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1 Quarto</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/kitnet-1-quarto-aluguel-asa-sul-brasilia-df-seps-712-912-805875</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SGCV, PARK SUL, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>R$ 4.400</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>R$ 62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70 m²</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2 Quartos</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2 Suítes</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2 Vagas</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-2-quartos-aluguel-park-sul-brasilia-df-sgcv-133967</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SQSW 300 Bloco E, SUDOESTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>R$ 10.500</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>R$ 53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>198 m²</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4 Quartos</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2 Suítes</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2 Vagas</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-4-quartos-aluguel-sudoeste-brasilia-df-sqsw-300-bloco-e-590671</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SGCV Lote 27, PARK SUL, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>R$ 16.900</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>R$ 56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>300 m²</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4 Quartos</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>4 Suítes</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>4 Vagas</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-4-quartos-aluguel-park-sul-brasilia-df-sgcv-lote-27-197717</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SQSW 302 Bloco H, SUDOESTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>R$ 10.000</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>R$ 50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>200 m²</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4 Quartos</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1 Suíte</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2 Vagas</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-4-quartos-aluguel-sudoeste-brasilia-df-sqsw-302-bloco-h-919317</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SQSW 101 Bloco F, SUDOESTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>R$ 4.500</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>R$ 45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>100 m²</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3 Quartos</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1 Suíte</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/apartamento-3-quartos-aluguel-sudoeste-brasilia-df-sqsw-101-bloco-f-898559</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>STN, ASA NORTE, BRASILIA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>R$ 1.150</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>R$ 44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26 m²</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1 Quarto</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1 Vaga</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/kitnet-1-quarto-aluguel-asa-norte-brasilia-df-stn-876880</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>